--- a/experiment_plans/dmd_ex_plan.xlsx
+++ b/experiment_plans/dmd_ex_plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LR\WLR\Documents-\WangLR\University\Y2S1\URECA\Code\doppelgangerSpotting\experiment_plans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60563DC7-07DF-43CD-84D7-4EFF06996DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{71044C32-C475-4BCD-B20D-7E12FB4D4505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MetaData" sheetId="1" r:id="rId1"/>
@@ -21,15 +21,17 @@
     <sheet name="bal_doppel_samples_H" sheetId="6" r:id="rId6"/>
     <sheet name="bal_doppel_samples_P" sheetId="7" r:id="rId7"/>
     <sheet name="Additional doppel samples" sheetId="8" r:id="rId8"/>
-    <sheet name="Experiment_Plan" sheetId="9" r:id="rId9"/>
-    <sheet name="Test_Additional" sheetId="10" r:id="rId10"/>
+    <sheet name="Experiment_Plan_ori" sheetId="12" r:id="rId9"/>
+    <sheet name="Experiment_Plan" sheetId="9" r:id="rId10"/>
+    <sheet name="Test_Additional" sheetId="10" r:id="rId11"/>
+    <sheet name="Test_Additional_2" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="94">
   <si>
     <t>Patient_ID</t>
   </si>
@@ -370,12 +372,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1347,11 +1350,822 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F15C113F-DD8E-4BF0-A877-BBAEEEE38E02}">
+  <dimension ref="A1:N24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="8" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="12.54296875" customWidth="1"/>
+    <col min="12" max="12" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="15.04296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M10" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" t="s">
+        <v>27</v>
+      </c>
+      <c r="K23" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.75">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA940E6-7924-4EDC-A447-8897B4346601}">
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection sqref="A1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1944,6 +2758,604 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9444DCD4-F194-44C1-B6D4-B4FA42235666}">
+  <dimension ref="A1:J24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="3" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J27"/>
@@ -2406,7 +3818,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
@@ -2916,7 +4330,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
@@ -2932,7 +4348,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B2" t="s">
@@ -3411,7 +4827,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -3449,11 +4865,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F15C113F-DD8E-4BF0-A877-BBAEEEE38E02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C42B954-16D2-4297-AA48-58C3607F1FC4}">
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -3955,6 +5371,7 @@
       <c r="C12" t="s">
         <v>15</v>
       </c>
+      <c r="D12" s="5"/>
       <c r="E12" t="s">
         <v>15</v>
       </c>
@@ -3978,6 +5395,7 @@
       <c r="C13" t="s">
         <v>16</v>
       </c>
+      <c r="D13" s="5"/>
       <c r="E13" t="s">
         <v>16</v>
       </c>
@@ -4001,6 +5419,7 @@
       <c r="C14" t="s">
         <v>17</v>
       </c>
+      <c r="D14" s="5"/>
       <c r="E14" t="s">
         <v>17</v>
       </c>
@@ -4047,6 +5466,7 @@
       <c r="C16" t="s">
         <v>20</v>
       </c>
+      <c r="D16" s="5"/>
       <c r="E16" t="s">
         <v>20</v>
       </c>
@@ -4070,6 +5490,7 @@
       <c r="C17" t="s">
         <v>21</v>
       </c>
+      <c r="D17" s="5"/>
       <c r="E17" t="s">
         <v>21</v>
       </c>
@@ -4093,6 +5514,7 @@
       <c r="C18" t="s">
         <v>22</v>
       </c>
+      <c r="D18" s="5"/>
       <c r="E18" t="s">
         <v>22</v>
       </c>
